--- a/src/ExerciseMuscle.xlsx
+++ b/src/ExerciseMuscle.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF90C504-7D70-4B4F-8D52-7642A5DCFE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{629184CE-5C56-47B0-B93E-D0D8E693A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
